--- a/Placement/DSA.xlsx
+++ b/Placement/DSA.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HolyCow\Documents\GitHub\ProgrammingProjects\Placement\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\subhr\OneDrive\Documents\Github\ProgrammingProjects\Placement\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{893E4AF7-5728-4E47-B751-CB23186F8636}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AB595B7-9FA7-4705-ACF7-8A18E81EE53C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -126,18 +126,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -157,8 +151,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -443,18 +437,18 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="34.21875" customWidth="1"/>
+    <col min="1" max="1" width="32" customWidth="1"/>
     <col min="2" max="2" width="16.109375" customWidth="1"/>
     <col min="3" max="3" width="11.21875" customWidth="1"/>
     <col min="4" max="4" width="10.88671875" customWidth="1"/>
     <col min="5" max="5" width="14.6640625" customWidth="1"/>
-    <col min="6" max="6" width="84.5546875" customWidth="1"/>
-    <col min="7" max="7" width="72.109375" customWidth="1"/>
+    <col min="6" max="6" width="7.21875" customWidth="1"/>
+    <col min="7" max="7" width="90.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
@@ -474,10 +468,10 @@
         <v>19</v>
       </c>
       <c r="F1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" t="s">
         <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
@@ -495,13 +489,13 @@
       </c>
       <c r="E2" s="2">
         <f ca="1">TODAY()-1</f>
-        <v>44862</v>
-      </c>
-      <c r="F2" t="s">
+        <v>45050</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" t="s">
         <v>11</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
@@ -519,13 +513,13 @@
       </c>
       <c r="E3" s="2">
         <f ca="1">TODAY()</f>
-        <v>44863</v>
-      </c>
-      <c r="F3" t="s">
+        <v>45051</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s">
         <v>14</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
@@ -543,13 +537,13 @@
       </c>
       <c r="E4" s="2">
         <f ca="1">TODAY()</f>
-        <v>44863</v>
-      </c>
-      <c r="F4" t="s">
+        <v>45051</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" t="s">
         <v>17</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -567,20 +561,20 @@
       </c>
       <c r="E5" s="4">
         <f ca="1">TODAY()</f>
-        <v>44863</v>
+        <v>45051</v>
       </c>
       <c r="F5" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" s="3" t="s">
         <v>21</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>22</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G4" r:id="rId1" xr:uid="{62AA1A7D-17C5-4D7E-AE5A-24DB1E022B60}"/>
-    <hyperlink ref="G3" r:id="rId2" xr:uid="{E5A2D44A-AA0E-4FDE-838D-AF8FB4A180F0}"/>
-    <hyperlink ref="G2" r:id="rId3" xr:uid="{B1562FA9-94D6-4D82-9C98-1DDBF823BA10}"/>
+    <hyperlink ref="F4" r:id="rId1" xr:uid="{62AA1A7D-17C5-4D7E-AE5A-24DB1E022B60}"/>
+    <hyperlink ref="F3" r:id="rId2" xr:uid="{E5A2D44A-AA0E-4FDE-838D-AF8FB4A180F0}"/>
+    <hyperlink ref="F2" r:id="rId3" xr:uid="{B1562FA9-94D6-4D82-9C98-1DDBF823BA10}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId4"/>
